--- a/ConfigExtraction.xlsx
+++ b/ConfigExtraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADEBO Mouhite\Dropbox\Général\Malik\AnalyseDonnées\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42233CC0-BA10-4437-A344-E9319E541424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46F498B-3B42-415C-A41D-C6C67CDD05E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B4635FBE-C696-45D4-BA3E-807606A565FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>name_keyword_for_extract</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Suivi_PRI.xlsx</t>
+  </si>
+  <si>
+    <t>name_dir_histogram</t>
+  </si>
+  <si>
+    <t>ALL_HISTOGRAM</t>
+  </si>
+  <si>
+    <t>nom du repectoire contenant les graphes réalisé</t>
   </si>
 </sst>
 </file>
@@ -462,8 +471,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D15DB604-E8F7-4F49-9B9F-CECFA32F0B55}" name="Tableau1" displayName="Tableau1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C8" xr:uid="{D15DB604-E8F7-4F49-9B9F-CECFA32F0B55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D15DB604-E8F7-4F49-9B9F-CECFA32F0B55}" name="Tableau1" displayName="Tableau1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C9" xr:uid="{D15DB604-E8F7-4F49-9B9F-CECFA32F0B55}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8E6D0AA3-D661-432D-A85E-370293726BB2}" name="variables" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{CAB8F1C6-A6EE-4659-A702-603EC9946F34}" name="values" dataDxfId="1"/>
@@ -770,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80D2D4-A01B-45C9-A42E-9684FD507DF4}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,6 +880,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="22" x14ac:dyDescent="0.85">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
